--- a/StuGraDP/Sheets/2020-2021/Aguinaldo/Aguinaldo.xlsx
+++ b/StuGraDP/Sheets/2020-2021/Aguinaldo/Aguinaldo.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Aguinaldo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Performance Task</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Student Names</t>
+  </si>
+  <si>
+    <t>PONS, Luke Alexander R</t>
+  </si>
+  <si>
+    <t>GIDA, Ericson Virgile F</t>
+  </si>
+  <si>
+    <t>Highest Possible Grade</t>
   </si>
 </sst>
 </file>
@@ -59,11 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,10 +385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -387,30 +397,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
@@ -478,10 +488,199 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
